--- a/策划/Const.xlsx
+++ b/策划/Const.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>sheet名字格式：中文名|英文名，否则不会导出</t>
   </si>
@@ -198,60 +198,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>tip消失时间</t>
-  </si>
-  <si>
-    <t>tip每行显示时间</t>
-  </si>
-  <si>
-    <t>tip移动速度</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>每一境界所能到达的最大层数</t>
-  </si>
-  <si>
-    <t>0.1,0.5,1,2,4,8,16,32,64,128,256,512,1024,2048</t>
-  </si>
-  <si>
-    <t>倍速</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>分解装备</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
-  </si>
-  <si>
-    <t>分解宝石</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>最大宝石等级</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>武器最大星级</t>
   </si>
   <si>
     <t>颜色值</t>
@@ -1558,13 +1504,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="6.75" style="7" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="7" customWidth="1"/>
@@ -1601,116 +1547,6 @@
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A4" s="9">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A5" s="9">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A6" s="9">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A7" s="9">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A8" s="9">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="32.25" customHeight="1" spans="1:3">
-      <c r="A9" s="9">
-        <v>1006</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1575,7 @@
     <row r="1" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1747,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1763,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1771,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1779,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1787,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1795,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1803,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1811,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1819,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1827,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1835,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1843,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:2">
@@ -1851,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
